--- a/data.xlsx
+++ b/data.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="172">
   <si>
-    <t>BRAND</t>
+    <t>brand</t>
   </si>
   <si>
     <t>modelCode</t>
@@ -1950,8 +1950,8 @@
   <sheetPr/>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
